--- a/Данные/Базовые с сайта/Оценка тур потока с 2022.xlsx
+++ b/Данные/Базовые с сайта/Оценка тур потока с 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.2022" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="115">
   <si>
     <t>Российская Федерация</t>
   </si>
@@ -431,6 +431,9 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>по квартала, по сезонам</t>
   </si>
 </sst>
 </file>
@@ -1165,9 +1168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,9 +2772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,6 +2803,9 @@
         <v>103</v>
       </c>
       <c r="B1" s="16"/>
+      <c r="D1" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="L1"/>
       <c r="O1"/>
       <c r="P1"/>

--- a/Данные/Базовые с сайта/Оценка тур потока с 2022.xlsx
+++ b/Данные/Базовые с сайта/Оценка тур потока с 2022.xlsx
@@ -11,7 +11,7 @@
     <sheet name="2.2022" sheetId="1" r:id="rId2"/>
     <sheet name="2.2023" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2772,9 +2772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
